--- a/Code/Results/Cases/Case_4_131/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_131/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009657897298077</v>
+        <v>1.040233611731493</v>
       </c>
       <c r="D2">
-        <v>1.030538881498365</v>
+        <v>1.048265648958143</v>
       </c>
       <c r="E2">
-        <v>1.028460542794281</v>
+        <v>1.053674915278574</v>
       </c>
       <c r="F2">
-        <v>1.037452378020987</v>
+        <v>1.060807991849815</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048578790168197</v>
+        <v>1.038683651240008</v>
       </c>
       <c r="J2">
-        <v>1.031553530201922</v>
+        <v>1.04532132351195</v>
       </c>
       <c r="K2">
-        <v>1.04158854478713</v>
+        <v>1.051025975274726</v>
       </c>
       <c r="L2">
-        <v>1.039537120391534</v>
+        <v>1.056420230251175</v>
       </c>
       <c r="M2">
-        <v>1.048413481267452</v>
+        <v>1.063533765148599</v>
       </c>
       <c r="N2">
-        <v>1.014218039551098</v>
+        <v>1.018995452433199</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013968899709342</v>
+        <v>1.041162057858258</v>
       </c>
       <c r="D3">
-        <v>1.033783722318311</v>
+        <v>1.048984583468511</v>
       </c>
       <c r="E3">
-        <v>1.032268930476517</v>
+        <v>1.054548046946758</v>
       </c>
       <c r="F3">
-        <v>1.041236219170233</v>
+        <v>1.061669278766291</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049578739086675</v>
+        <v>1.038839713566636</v>
       </c>
       <c r="J3">
-        <v>1.034085868906418</v>
+        <v>1.045895408220629</v>
       </c>
       <c r="K3">
-        <v>1.044001839004564</v>
+        <v>1.051557161474702</v>
       </c>
       <c r="L3">
-        <v>1.042504923967065</v>
+        <v>1.057106299900954</v>
       </c>
       <c r="M3">
-        <v>1.051367321401942</v>
+        <v>1.064209431782445</v>
       </c>
       <c r="N3">
-        <v>1.015079382595162</v>
+        <v>1.019188630125915</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016705913263987</v>
+        <v>1.041763514732994</v>
       </c>
       <c r="D4">
-        <v>1.035845908287129</v>
+        <v>1.049450196544384</v>
       </c>
       <c r="E4">
-        <v>1.034692097511017</v>
+        <v>1.055113990706637</v>
       </c>
       <c r="F4">
-        <v>1.043642920024843</v>
+        <v>1.06222741147183</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050203580876918</v>
+        <v>1.03893955119151</v>
       </c>
       <c r="J4">
-        <v>1.035691723325037</v>
+        <v>1.046266935333764</v>
       </c>
       <c r="K4">
-        <v>1.045530129194224</v>
+        <v>1.051900616267682</v>
       </c>
       <c r="L4">
-        <v>1.044389100842485</v>
+        <v>1.057550560060815</v>
       </c>
       <c r="M4">
-        <v>1.05324167133717</v>
+        <v>1.064646810334592</v>
       </c>
       <c r="N4">
-        <v>1.015625298466817</v>
+        <v>1.019313579100095</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017844409534871</v>
+        <v>1.042016531159928</v>
       </c>
       <c r="D5">
-        <v>1.036704145771126</v>
+        <v>1.049646037867841</v>
       </c>
       <c r="E5">
-        <v>1.035701269086674</v>
+        <v>1.055352143864914</v>
       </c>
       <c r="F5">
-        <v>1.044645024106733</v>
+        <v>1.062462245675146</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050461050286149</v>
+        <v>1.038981248166801</v>
       </c>
       <c r="J5">
-        <v>1.036359211141968</v>
+        <v>1.046423137576675</v>
       </c>
       <c r="K5">
-        <v>1.046164865945255</v>
+        <v>1.052044941620841</v>
       </c>
       <c r="L5">
-        <v>1.045172799356417</v>
+        <v>1.057737404016081</v>
       </c>
       <c r="M5">
-        <v>1.054021045442125</v>
+        <v>1.064830725253144</v>
       </c>
       <c r="N5">
-        <v>1.01585213882526</v>
+        <v>1.01936609525425</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018034867857115</v>
+        <v>1.042059023309147</v>
       </c>
       <c r="D6">
-        <v>1.036847744431061</v>
+        <v>1.049678926163322</v>
       </c>
       <c r="E6">
-        <v>1.035870163621724</v>
+        <v>1.0553921442918</v>
       </c>
       <c r="F6">
-        <v>1.044812723312729</v>
+        <v>1.062501686769552</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050503977560676</v>
+        <v>1.03898823314241</v>
       </c>
       <c r="J6">
-        <v>1.03647084516143</v>
+        <v>1.046449365305419</v>
       </c>
       <c r="K6">
-        <v>1.046270992100936</v>
+        <v>1.052069170750187</v>
       </c>
       <c r="L6">
-        <v>1.045303899844529</v>
+        <v>1.057768780413389</v>
       </c>
       <c r="M6">
-        <v>1.054151408413356</v>
+        <v>1.064861607738975</v>
       </c>
       <c r="N6">
-        <v>1.015890072263871</v>
+        <v>1.019374912207825</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016721173079113</v>
+        <v>1.041766894908211</v>
       </c>
       <c r="D7">
-        <v>1.035857409970202</v>
+        <v>1.049452813004316</v>
       </c>
       <c r="E7">
-        <v>1.034705619141014</v>
+        <v>1.055117172017509</v>
       </c>
       <c r="F7">
-        <v>1.04365634779592</v>
+        <v>1.06223054857301</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050207041555587</v>
+        <v>1.038940109428928</v>
       </c>
       <c r="J7">
-        <v>1.035700671955173</v>
+        <v>1.046269022469097</v>
       </c>
       <c r="K7">
-        <v>1.045538640784549</v>
+        <v>1.051902544999367</v>
       </c>
       <c r="L7">
-        <v>1.044399605374114</v>
+        <v>1.057553056378091</v>
       </c>
       <c r="M7">
-        <v>1.053252118849456</v>
+        <v>1.064649267655503</v>
       </c>
       <c r="N7">
-        <v>1.015628339885682</v>
+        <v>1.019314280872779</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.011125950653134</v>
+        <v>1.040547240784968</v>
       </c>
       <c r="D8">
-        <v>1.031643402733077</v>
+        <v>1.048508529471954</v>
       </c>
       <c r="E8">
-        <v>1.029756312404235</v>
+        <v>1.053969792561116</v>
       </c>
       <c r="F8">
-        <v>1.038739969277845</v>
+        <v>1.061098896480602</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048921383554627</v>
+        <v>1.038736629972214</v>
       </c>
       <c r="J8">
-        <v>1.03241626280505</v>
+        <v>1.045515325861546</v>
       </c>
       <c r="K8">
-        <v>1.04241114709658</v>
+        <v>1.051205544860652</v>
       </c>
       <c r="L8">
-        <v>1.040547753969507</v>
+        <v>1.056652022134515</v>
       </c>
       <c r="M8">
-        <v>1.049419557503787</v>
+        <v>1.063762072339738</v>
       </c>
       <c r="N8">
-        <v>1.014511546818896</v>
+        <v>1.019060747805109</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.000844401745419</v>
+        <v>1.038403396128974</v>
       </c>
       <c r="D9">
-        <v>1.023918813773021</v>
+        <v>1.046847826228384</v>
       </c>
       <c r="E9">
-        <v>1.020705240381127</v>
+        <v>1.051955457942696</v>
       </c>
       <c r="F9">
-        <v>1.029742721393317</v>
+        <v>1.059111154768688</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046481243065296</v>
+        <v>1.038369329983602</v>
       </c>
       <c r="J9">
-        <v>1.026367377206785</v>
+        <v>1.044187694917228</v>
       </c>
       <c r="K9">
-        <v>1.036635388668825</v>
+        <v>1.049975418383515</v>
       </c>
       <c r="L9">
-        <v>1.033471089694911</v>
+        <v>1.055066850610223</v>
       </c>
       <c r="M9">
-        <v>1.042370994979855</v>
+        <v>1.062200139373033</v>
       </c>
       <c r="N9">
-        <v>1.012452574467553</v>
+        <v>1.018613627589446</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9936766352791324</v>
+        <v>1.036977832637511</v>
       </c>
       <c r="D10">
-        <v>1.018550073884562</v>
+        <v>1.045742968486625</v>
       </c>
       <c r="E10">
-        <v>1.014427529387762</v>
+        <v>1.050617703549777</v>
       </c>
       <c r="F10">
-        <v>1.023498465856109</v>
+        <v>1.05779037939737</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044730119088192</v>
+        <v>1.038118621427377</v>
       </c>
       <c r="J10">
-        <v>1.022143401827691</v>
+        <v>1.043302997275878</v>
       </c>
       <c r="K10">
-        <v>1.032592288101851</v>
+        <v>1.049154113974574</v>
       </c>
       <c r="L10">
-        <v>1.028541086437013</v>
+        <v>1.054011875093744</v>
       </c>
       <c r="M10">
-        <v>1.037456025432158</v>
+        <v>1.061159888381316</v>
       </c>
       <c r="N10">
-        <v>1.011013545328351</v>
+        <v>1.018315330132548</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9904914516020302</v>
+        <v>1.036361433022498</v>
       </c>
       <c r="D11">
-        <v>1.016169094565954</v>
+        <v>1.045265113317252</v>
       </c>
       <c r="E11">
-        <v>1.011646162620926</v>
+        <v>1.050039679393989</v>
       </c>
       <c r="F11">
-        <v>1.020731106811031</v>
+        <v>1.057219530390768</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043940695766444</v>
+        <v>1.038008683880204</v>
       </c>
       <c r="J11">
-        <v>1.020265218020135</v>
+        <v>1.042920020026094</v>
       </c>
       <c r="K11">
-        <v>1.030792394268443</v>
+        <v>1.04879820599853</v>
       </c>
       <c r="L11">
-        <v>1.026351741375448</v>
+        <v>1.053555504114978</v>
       </c>
       <c r="M11">
-        <v>1.0352723757275</v>
+        <v>1.060709711928161</v>
       </c>
       <c r="N11">
-        <v>1.010373443606907</v>
+        <v>1.01818611803954</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9892954367761655</v>
+        <v>1.036132608006881</v>
       </c>
       <c r="D12">
-        <v>1.015275844716704</v>
+        <v>1.045087701711003</v>
       </c>
       <c r="E12">
-        <v>1.010603083447305</v>
+        <v>1.049825162251344</v>
       </c>
       <c r="F12">
-        <v>1.019693167792549</v>
+        <v>1.057007651911026</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04364263220247</v>
+        <v>1.037967641581807</v>
       </c>
       <c r="J12">
-        <v>1.019559845320661</v>
+        <v>1.042777781773198</v>
       </c>
       <c r="K12">
-        <v>1.030116120957179</v>
+        <v>1.048665965415452</v>
       </c>
       <c r="L12">
-        <v>1.025529925909957</v>
+        <v>1.053386055117632</v>
       </c>
       <c r="M12">
-        <v>1.034452559302937</v>
+        <v>1.06054253667775</v>
       </c>
       <c r="N12">
-        <v>1.010133014896434</v>
+        <v>1.018138116245803</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.989552580523403</v>
+        <v>1.036181685700176</v>
       </c>
       <c r="D13">
-        <v>1.015467856811504</v>
+        <v>1.045125753226739</v>
       </c>
       <c r="E13">
-        <v>1.010827286011711</v>
+        <v>1.049871168429051</v>
       </c>
       <c r="F13">
-        <v>1.019916270471951</v>
+        <v>1.057053093285005</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043706789277348</v>
+        <v>1.037976454633594</v>
       </c>
       <c r="J13">
-        <v>1.019711505790058</v>
+        <v>1.042808291594293</v>
       </c>
       <c r="K13">
-        <v>1.030261538252951</v>
+        <v>1.04869433328326</v>
       </c>
       <c r="L13">
-        <v>1.025706603585861</v>
+        <v>1.053422399426514</v>
       </c>
       <c r="M13">
-        <v>1.034628813348479</v>
+        <v>1.060578394488973</v>
       </c>
       <c r="N13">
-        <v>1.010184710234574</v>
+        <v>1.018148413088223</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9903928556363725</v>
+        <v>1.036342515550063</v>
       </c>
       <c r="D14">
-        <v>1.016095441110091</v>
+        <v>1.045250446673566</v>
       </c>
       <c r="E14">
-        <v>1.011560147340661</v>
+        <v>1.050021943520715</v>
       </c>
       <c r="F14">
-        <v>1.02064551764693</v>
+        <v>1.05720201317054</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043916157322719</v>
+        <v>1.038005295522118</v>
       </c>
       <c r="J14">
-        <v>1.020207071479467</v>
+        <v>1.042908262223616</v>
       </c>
       <c r="K14">
-        <v>1.03073665256266</v>
+        <v>1.048787275770126</v>
       </c>
       <c r="L14">
-        <v>1.026283987528509</v>
+        <v>1.053541496023171</v>
       </c>
       <c r="M14">
-        <v>1.035204789462102</v>
+        <v>1.060695892339008</v>
       </c>
       <c r="N14">
-        <v>1.010353624770767</v>
+        <v>1.018182150329795</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9909088478169775</v>
+        <v>1.036441625821666</v>
       </c>
       <c r="D15">
-        <v>1.01648093189221</v>
+        <v>1.045327285743919</v>
       </c>
       <c r="E15">
-        <v>1.01201035332822</v>
+        <v>1.050114865827666</v>
       </c>
       <c r="F15">
-        <v>1.02109348877636</v>
+        <v>1.057293788913336</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044044510252627</v>
+        <v>1.03802303798691</v>
       </c>
       <c r="J15">
-        <v>1.020511370695746</v>
+        <v>1.042969859654469</v>
       </c>
       <c r="K15">
-        <v>1.03102835425906</v>
+        <v>1.048844535371618</v>
       </c>
       <c r="L15">
-        <v>1.026638581832058</v>
+        <v>1.053614884352154</v>
       </c>
       <c r="M15">
-        <v>1.035558501106622</v>
+        <v>1.060768292028217</v>
       </c>
       <c r="N15">
-        <v>1.010457341747241</v>
+        <v>1.018202936087248</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9938862537379662</v>
+        <v>1.037018759668814</v>
       </c>
       <c r="D16">
-        <v>1.018706872916664</v>
+        <v>1.045774694002899</v>
       </c>
       <c r="E16">
-        <v>1.014610750360672</v>
+        <v>1.050656091211454</v>
       </c>
       <c r="F16">
-        <v>1.023680747847271</v>
+        <v>1.057828287147121</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044781840860478</v>
+        <v>1.038125888615176</v>
       </c>
       <c r="J16">
-        <v>1.022266985805187</v>
+        <v>1.043328416473731</v>
       </c>
       <c r="K16">
-        <v>1.032710677568805</v>
+        <v>1.049177728666618</v>
       </c>
       <c r="L16">
-        <v>1.028685202599159</v>
+        <v>1.05404217232542</v>
       </c>
       <c r="M16">
-        <v>1.037599746945723</v>
+        <v>1.061189770688369</v>
       </c>
       <c r="N16">
-        <v>1.011055659232954</v>
+        <v>1.018323904554152</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9957316363398498</v>
+        <v>1.037381016617938</v>
       </c>
       <c r="D17">
-        <v>1.02008780948317</v>
+        <v>1.046055491256035</v>
       </c>
       <c r="E17">
-        <v>1.016224694257512</v>
+        <v>1.050995918669042</v>
       </c>
       <c r="F17">
-        <v>1.025286328602446</v>
+        <v>1.058163847533144</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045235897488968</v>
+        <v>1.038190035294794</v>
       </c>
       <c r="J17">
-        <v>1.023354835446646</v>
+        <v>1.043553357974292</v>
       </c>
       <c r="K17">
-        <v>1.033752561251813</v>
+        <v>1.049386658513979</v>
       </c>
       <c r="L17">
-        <v>1.029954103014344</v>
+        <v>1.05431031763175</v>
       </c>
       <c r="M17">
-        <v>1.038865061788359</v>
+        <v>1.061454223472641</v>
       </c>
       <c r="N17">
-        <v>1.01142634069367</v>
+        <v>1.01839977251835</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.996800200092289</v>
+        <v>1.037592399675327</v>
       </c>
       <c r="D18">
-        <v>1.020887884028</v>
+        <v>1.04621932903453</v>
       </c>
       <c r="E18">
-        <v>1.017160028350873</v>
+        <v>1.051194253068178</v>
       </c>
       <c r="F18">
-        <v>1.026216737784337</v>
+        <v>1.058359675950865</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045497743923433</v>
+        <v>1.038227317865829</v>
       </c>
       <c r="J18">
-        <v>1.023984639432562</v>
+        <v>1.043684572376211</v>
       </c>
       <c r="K18">
-        <v>1.034355549502991</v>
+        <v>1.049508496879069</v>
       </c>
       <c r="L18">
-        <v>1.030688988539697</v>
+        <v>1.054466764652674</v>
       </c>
       <c r="M18">
-        <v>1.039597776916507</v>
+        <v>1.061608499211894</v>
       </c>
       <c r="N18">
-        <v>1.011640921413373</v>
+        <v>1.018444020422473</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.997163245988802</v>
+        <v>1.037664490166179</v>
       </c>
       <c r="D19">
-        <v>1.02115978396742</v>
+        <v>1.046275202506863</v>
       </c>
       <c r="E19">
-        <v>1.017477940637321</v>
+        <v>1.051261900072791</v>
       </c>
       <c r="F19">
-        <v>1.026532962598461</v>
+        <v>1.058426465583031</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04558652291284</v>
+        <v>1.038240007664646</v>
       </c>
       <c r="J19">
-        <v>1.024198595753974</v>
+        <v>1.043729314729568</v>
       </c>
       <c r="K19">
-        <v>1.034560360889634</v>
+        <v>1.04955003601672</v>
       </c>
       <c r="L19">
-        <v>1.03093868769128</v>
+        <v>1.054520116194897</v>
       </c>
       <c r="M19">
-        <v>1.03984672244938</v>
+        <v>1.061661107433685</v>
       </c>
       <c r="N19">
-        <v>1.011713814491155</v>
+        <v>1.018459107021366</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9955344573482324</v>
+        <v>1.03734214110511</v>
       </c>
       <c r="D20">
-        <v>1.019940209615489</v>
+        <v>1.046025358823645</v>
       </c>
       <c r="E20">
-        <v>1.01605216271527</v>
+        <v>1.050959446099945</v>
       </c>
       <c r="F20">
-        <v>1.025114699127663</v>
+        <v>1.058127834545668</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045187492589889</v>
+        <v>1.038183166726215</v>
       </c>
       <c r="J20">
-        <v>1.023238610133728</v>
+        <v>1.043529222855176</v>
       </c>
       <c r="K20">
-        <v>1.033641267959202</v>
+        <v>1.049364245090206</v>
       </c>
       <c r="L20">
-        <v>1.029818507011611</v>
+        <v>1.054281543782715</v>
       </c>
       <c r="M20">
-        <v>1.038729858613386</v>
+        <v>1.061425847605532</v>
       </c>
       <c r="N20">
-        <v>1.011386739632627</v>
+        <v>1.018391633075979</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9901457769997198</v>
+        <v>1.036295151479774</v>
       </c>
       <c r="D21">
-        <v>1.015910880703878</v>
+        <v>1.045213725199752</v>
       </c>
       <c r="E21">
-        <v>1.011344616770519</v>
+        <v>1.049977538845517</v>
       </c>
       <c r="F21">
-        <v>1.020431053016578</v>
+        <v>1.057158155538493</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043854638442329</v>
+        <v>1.037996808297637</v>
       </c>
       <c r="J21">
-        <v>1.020061356035837</v>
+        <v>1.042878822899087</v>
       </c>
       <c r="K21">
-        <v>1.030596958818679</v>
+        <v>1.048759907632902</v>
       </c>
       <c r="L21">
-        <v>1.02611420286619</v>
+        <v>1.053506423169636</v>
       </c>
       <c r="M21">
-        <v>1.035035422535779</v>
+        <v>1.060661291026198</v>
       </c>
       <c r="N21">
-        <v>1.010303958204274</v>
+        <v>1.018172215733594</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9866827339086277</v>
+        <v>1.035637639078665</v>
       </c>
       <c r="D22">
-        <v>1.013326076741162</v>
+        <v>1.044703911975191</v>
       </c>
       <c r="E22">
-        <v>1.008326935632592</v>
+        <v>1.049361256153442</v>
       </c>
       <c r="F22">
-        <v>1.017428039519879</v>
+        <v>1.056549407902583</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042988554159125</v>
+        <v>1.037878442337616</v>
       </c>
       <c r="J22">
-        <v>1.018018771175092</v>
+        <v>1.042469986942038</v>
       </c>
       <c r="K22">
-        <v>1.028638084589418</v>
+        <v>1.048379702887793</v>
       </c>
       <c r="L22">
-        <v>1.023735219663687</v>
+        <v>1.053019465298596</v>
       </c>
       <c r="M22">
-        <v>1.032661973208145</v>
+        <v>1.060180817982455</v>
       </c>
       <c r="N22">
-        <v>1.009607681832811</v>
+        <v>1.018034220973936</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9885258936508369</v>
+        <v>1.035986125302242</v>
       </c>
       <c r="D23">
-        <v>1.014701340397046</v>
+        <v>1.04497412633582</v>
       </c>
       <c r="E23">
-        <v>1.009932317902893</v>
+        <v>1.049687856225481</v>
       </c>
       <c r="F23">
-        <v>1.019025677041989</v>
+        <v>1.056872028010199</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043450395792418</v>
+        <v>1.037941303447843</v>
       </c>
       <c r="J23">
-        <v>1.019105962424488</v>
+        <v>1.042686709113196</v>
       </c>
       <c r="K23">
-        <v>1.029680879304327</v>
+        <v>1.048581278372681</v>
       </c>
       <c r="L23">
-        <v>1.025001233816734</v>
+        <v>1.053277573347852</v>
       </c>
       <c r="M23">
-        <v>1.033925115218299</v>
+        <v>1.060435503182425</v>
       </c>
       <c r="N23">
-        <v>1.009978299074965</v>
+        <v>1.018107378096589</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.995623578155678</v>
+        <v>1.03735970701436</v>
       </c>
       <c r="D24">
-        <v>1.020006920309195</v>
+        <v>1.046038974207717</v>
       </c>
       <c r="E24">
-        <v>1.01613014096098</v>
+        <v>1.050975926117113</v>
       </c>
       <c r="F24">
-        <v>1.025192269913313</v>
+        <v>1.058144106950438</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045209373931108</v>
+        <v>1.038186270748028</v>
       </c>
       <c r="J24">
-        <v>1.023291141912139</v>
+        <v>1.043540128446367</v>
       </c>
       <c r="K24">
-        <v>1.033691571185779</v>
+        <v>1.049374372834823</v>
       </c>
       <c r="L24">
-        <v>1.029879793181835</v>
+        <v>1.054294545315676</v>
       </c>
       <c r="M24">
-        <v>1.038790967526209</v>
+        <v>1.06143866936166</v>
       </c>
       <c r="N24">
-        <v>1.011404638681172</v>
+        <v>1.018395310953878</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.00355538535436</v>
+        <v>1.038956990648364</v>
       </c>
       <c r="D25">
-        <v>1.025953024969823</v>
+        <v>1.047276763380566</v>
       </c>
       <c r="E25">
-        <v>1.023086420294334</v>
+        <v>1.052475313646833</v>
       </c>
       <c r="F25">
-        <v>1.032110445079299</v>
+        <v>1.059624267974337</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047133463259672</v>
+        <v>1.038465318189544</v>
       </c>
       <c r="J25">
-        <v>1.027963686179633</v>
+        <v>1.044530855625276</v>
       </c>
       <c r="K25">
-        <v>1.038161382880392</v>
+        <v>1.050293655956623</v>
       </c>
       <c r="L25">
-        <v>1.035336616698804</v>
+        <v>1.05547634309789</v>
       </c>
       <c r="M25">
-        <v>1.044229929433236</v>
+        <v>1.06260375973778</v>
       </c>
       <c r="N25">
-        <v>1.012996170417555</v>
+        <v>1.018729259121826</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_131/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_131/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040233611731493</v>
+        <v>1.009657897298076</v>
       </c>
       <c r="D2">
-        <v>1.048265648958143</v>
+        <v>1.030538881498364</v>
       </c>
       <c r="E2">
-        <v>1.053674915278574</v>
+        <v>1.02846054279428</v>
       </c>
       <c r="F2">
-        <v>1.060807991849815</v>
+        <v>1.037452378020986</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038683651240008</v>
+        <v>1.048578790168196</v>
       </c>
       <c r="J2">
-        <v>1.04532132351195</v>
+        <v>1.031553530201921</v>
       </c>
       <c r="K2">
-        <v>1.051025975274726</v>
+        <v>1.041588544787129</v>
       </c>
       <c r="L2">
-        <v>1.056420230251175</v>
+        <v>1.039537120391533</v>
       </c>
       <c r="M2">
-        <v>1.063533765148599</v>
+        <v>1.048413481267451</v>
       </c>
       <c r="N2">
-        <v>1.018995452433199</v>
+        <v>1.014218039551098</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041162057858258</v>
+        <v>1.013968899709343</v>
       </c>
       <c r="D3">
-        <v>1.048984583468511</v>
+        <v>1.033783722318311</v>
       </c>
       <c r="E3">
-        <v>1.054548046946758</v>
+        <v>1.032268930476517</v>
       </c>
       <c r="F3">
-        <v>1.061669278766291</v>
+        <v>1.041236219170233</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038839713566636</v>
+        <v>1.049578739086675</v>
       </c>
       <c r="J3">
-        <v>1.045895408220629</v>
+        <v>1.034085868906418</v>
       </c>
       <c r="K3">
-        <v>1.051557161474702</v>
+        <v>1.044001839004565</v>
       </c>
       <c r="L3">
-        <v>1.057106299900954</v>
+        <v>1.042504923967065</v>
       </c>
       <c r="M3">
-        <v>1.064209431782445</v>
+        <v>1.051367321401942</v>
       </c>
       <c r="N3">
-        <v>1.019188630125915</v>
+        <v>1.015079382595162</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.041763514732994</v>
+        <v>1.016705913263987</v>
       </c>
       <c r="D4">
-        <v>1.049450196544384</v>
+        <v>1.035845908287129</v>
       </c>
       <c r="E4">
-        <v>1.055113990706637</v>
+        <v>1.034692097511017</v>
       </c>
       <c r="F4">
-        <v>1.06222741147183</v>
+        <v>1.043642920024844</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03893955119151</v>
+        <v>1.050203580876918</v>
       </c>
       <c r="J4">
-        <v>1.046266935333764</v>
+        <v>1.035691723325037</v>
       </c>
       <c r="K4">
-        <v>1.051900616267682</v>
+        <v>1.045530129194224</v>
       </c>
       <c r="L4">
-        <v>1.057550560060815</v>
+        <v>1.044389100842485</v>
       </c>
       <c r="M4">
-        <v>1.064646810334592</v>
+        <v>1.05324167133717</v>
       </c>
       <c r="N4">
-        <v>1.019313579100095</v>
+        <v>1.015625298466817</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042016531159928</v>
+        <v>1.017844409534871</v>
       </c>
       <c r="D5">
-        <v>1.049646037867841</v>
+        <v>1.036704145771126</v>
       </c>
       <c r="E5">
-        <v>1.055352143864914</v>
+        <v>1.035701269086674</v>
       </c>
       <c r="F5">
-        <v>1.062462245675146</v>
+        <v>1.044645024106733</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038981248166801</v>
+        <v>1.050461050286149</v>
       </c>
       <c r="J5">
-        <v>1.046423137576675</v>
+        <v>1.036359211141968</v>
       </c>
       <c r="K5">
-        <v>1.052044941620841</v>
+        <v>1.046164865945255</v>
       </c>
       <c r="L5">
-        <v>1.057737404016081</v>
+        <v>1.045172799356417</v>
       </c>
       <c r="M5">
-        <v>1.064830725253144</v>
+        <v>1.054021045442125</v>
       </c>
       <c r="N5">
-        <v>1.01936609525425</v>
+        <v>1.01585213882526</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042059023309147</v>
+        <v>1.018034867857115</v>
       </c>
       <c r="D6">
-        <v>1.049678926163322</v>
+        <v>1.036847744431062</v>
       </c>
       <c r="E6">
-        <v>1.0553921442918</v>
+        <v>1.035870163621725</v>
       </c>
       <c r="F6">
-        <v>1.062501686769552</v>
+        <v>1.04481272331273</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03898823314241</v>
+        <v>1.050503977560676</v>
       </c>
       <c r="J6">
-        <v>1.046449365305419</v>
+        <v>1.036470845161431</v>
       </c>
       <c r="K6">
-        <v>1.052069170750187</v>
+        <v>1.046270992100937</v>
       </c>
       <c r="L6">
-        <v>1.057768780413389</v>
+        <v>1.045303899844529</v>
       </c>
       <c r="M6">
-        <v>1.064861607738975</v>
+        <v>1.054151408413356</v>
       </c>
       <c r="N6">
-        <v>1.019374912207825</v>
+        <v>1.015890072263871</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041766894908211</v>
+        <v>1.016721173079113</v>
       </c>
       <c r="D7">
-        <v>1.049452813004316</v>
+        <v>1.035857409970202</v>
       </c>
       <c r="E7">
-        <v>1.055117172017509</v>
+        <v>1.034705619141014</v>
       </c>
       <c r="F7">
-        <v>1.06223054857301</v>
+        <v>1.04365634779592</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038940109428928</v>
+        <v>1.050207041555587</v>
       </c>
       <c r="J7">
-        <v>1.046269022469097</v>
+        <v>1.035700671955172</v>
       </c>
       <c r="K7">
-        <v>1.051902544999367</v>
+        <v>1.045538640784548</v>
       </c>
       <c r="L7">
-        <v>1.057553056378091</v>
+        <v>1.044399605374113</v>
       </c>
       <c r="M7">
-        <v>1.064649267655503</v>
+        <v>1.053252118849455</v>
       </c>
       <c r="N7">
-        <v>1.019314280872779</v>
+        <v>1.015628339885682</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040547240784968</v>
+        <v>1.011125950653135</v>
       </c>
       <c r="D8">
-        <v>1.048508529471954</v>
+        <v>1.031643402733077</v>
       </c>
       <c r="E8">
-        <v>1.053969792561116</v>
+        <v>1.029756312404236</v>
       </c>
       <c r="F8">
-        <v>1.061098896480602</v>
+        <v>1.038739969277845</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038736629972214</v>
+        <v>1.048921383554628</v>
       </c>
       <c r="J8">
-        <v>1.045515325861546</v>
+        <v>1.032416262805051</v>
       </c>
       <c r="K8">
-        <v>1.051205544860652</v>
+        <v>1.042411147096581</v>
       </c>
       <c r="L8">
-        <v>1.056652022134515</v>
+        <v>1.040547753969507</v>
       </c>
       <c r="M8">
-        <v>1.063762072339738</v>
+        <v>1.049419557503788</v>
       </c>
       <c r="N8">
-        <v>1.019060747805109</v>
+        <v>1.014511546818896</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038403396128974</v>
+        <v>1.000844401745419</v>
       </c>
       <c r="D9">
-        <v>1.046847826228384</v>
+        <v>1.023918813773021</v>
       </c>
       <c r="E9">
-        <v>1.051955457942696</v>
+        <v>1.020705240381128</v>
       </c>
       <c r="F9">
-        <v>1.059111154768688</v>
+        <v>1.029742721393318</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038369329983602</v>
+        <v>1.046481243065297</v>
       </c>
       <c r="J9">
-        <v>1.044187694917228</v>
+        <v>1.026367377206786</v>
       </c>
       <c r="K9">
-        <v>1.049975418383515</v>
+        <v>1.036635388668826</v>
       </c>
       <c r="L9">
-        <v>1.055066850610223</v>
+        <v>1.033471089694912</v>
       </c>
       <c r="M9">
-        <v>1.062200139373033</v>
+        <v>1.042370994979855</v>
       </c>
       <c r="N9">
-        <v>1.018613627589446</v>
+        <v>1.012452574467553</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036977832637511</v>
+        <v>0.9936766352791335</v>
       </c>
       <c r="D10">
-        <v>1.045742968486625</v>
+        <v>1.018550073884563</v>
       </c>
       <c r="E10">
-        <v>1.050617703549777</v>
+        <v>1.014427529387763</v>
       </c>
       <c r="F10">
-        <v>1.05779037939737</v>
+        <v>1.023498465856111</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038118621427377</v>
+        <v>1.044730119088193</v>
       </c>
       <c r="J10">
-        <v>1.043302997275878</v>
+        <v>1.022143401827692</v>
       </c>
       <c r="K10">
-        <v>1.049154113974574</v>
+        <v>1.032592288101853</v>
       </c>
       <c r="L10">
-        <v>1.054011875093744</v>
+        <v>1.028541086437014</v>
       </c>
       <c r="M10">
-        <v>1.061159888381316</v>
+        <v>1.03745602543216</v>
       </c>
       <c r="N10">
-        <v>1.018315330132548</v>
+        <v>1.011013545328351</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036361433022498</v>
+        <v>0.9904914516020303</v>
       </c>
       <c r="D11">
-        <v>1.045265113317252</v>
+        <v>1.016169094565954</v>
       </c>
       <c r="E11">
-        <v>1.050039679393989</v>
+        <v>1.011646162620926</v>
       </c>
       <c r="F11">
-        <v>1.057219530390768</v>
+        <v>1.020731106811031</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038008683880204</v>
+        <v>1.043940695766444</v>
       </c>
       <c r="J11">
-        <v>1.042920020026094</v>
+        <v>1.020265218020135</v>
       </c>
       <c r="K11">
-        <v>1.04879820599853</v>
+        <v>1.030792394268443</v>
       </c>
       <c r="L11">
-        <v>1.053555504114978</v>
+        <v>1.026351741375448</v>
       </c>
       <c r="M11">
-        <v>1.060709711928161</v>
+        <v>1.035272375727499</v>
       </c>
       <c r="N11">
-        <v>1.01818611803954</v>
+        <v>1.010373443606907</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036132608006881</v>
+        <v>0.9892954367761648</v>
       </c>
       <c r="D12">
-        <v>1.045087701711003</v>
+        <v>1.015275844716703</v>
       </c>
       <c r="E12">
-        <v>1.049825162251344</v>
+        <v>1.010603083447304</v>
       </c>
       <c r="F12">
-        <v>1.057007651911026</v>
+        <v>1.019693167792548</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037967641581807</v>
+        <v>1.04364263220247</v>
       </c>
       <c r="J12">
-        <v>1.042777781773198</v>
+        <v>1.01955984532066</v>
       </c>
       <c r="K12">
-        <v>1.048665965415452</v>
+        <v>1.030116120957178</v>
       </c>
       <c r="L12">
-        <v>1.053386055117632</v>
+        <v>1.025529925909956</v>
       </c>
       <c r="M12">
-        <v>1.06054253667775</v>
+        <v>1.034452559302935</v>
       </c>
       <c r="N12">
-        <v>1.018138116245803</v>
+        <v>1.010133014896434</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.036181685700176</v>
+        <v>0.9895525805234042</v>
       </c>
       <c r="D13">
-        <v>1.045125753226739</v>
+        <v>1.015467856811505</v>
       </c>
       <c r="E13">
-        <v>1.049871168429051</v>
+        <v>1.010827286011713</v>
       </c>
       <c r="F13">
-        <v>1.057053093285005</v>
+        <v>1.019916270471952</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037976454633594</v>
+        <v>1.043706789277349</v>
       </c>
       <c r="J13">
-        <v>1.042808291594293</v>
+        <v>1.019711505790059</v>
       </c>
       <c r="K13">
-        <v>1.04869433328326</v>
+        <v>1.030261538252953</v>
       </c>
       <c r="L13">
-        <v>1.053422399426514</v>
+        <v>1.025706603585862</v>
       </c>
       <c r="M13">
-        <v>1.060578394488973</v>
+        <v>1.03462881334848</v>
       </c>
       <c r="N13">
-        <v>1.018148413088223</v>
+        <v>1.010184710234574</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.036342515550063</v>
+        <v>0.9903928556363727</v>
       </c>
       <c r="D14">
-        <v>1.045250446673566</v>
+        <v>1.016095441110092</v>
       </c>
       <c r="E14">
-        <v>1.050021943520715</v>
+        <v>1.011560147340661</v>
       </c>
       <c r="F14">
-        <v>1.05720201317054</v>
+        <v>1.020645517646931</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038005295522118</v>
+        <v>1.04391615732272</v>
       </c>
       <c r="J14">
-        <v>1.042908262223616</v>
+        <v>1.020207071479467</v>
       </c>
       <c r="K14">
-        <v>1.048787275770126</v>
+        <v>1.03073665256266</v>
       </c>
       <c r="L14">
-        <v>1.053541496023171</v>
+        <v>1.026283987528509</v>
       </c>
       <c r="M14">
-        <v>1.060695892339008</v>
+        <v>1.035204789462103</v>
       </c>
       <c r="N14">
-        <v>1.018182150329795</v>
+        <v>1.010353624770767</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036441625821666</v>
+        <v>0.9909088478169779</v>
       </c>
       <c r="D15">
-        <v>1.045327285743919</v>
+        <v>1.01648093189221</v>
       </c>
       <c r="E15">
-        <v>1.050114865827666</v>
+        <v>1.01201035332822</v>
       </c>
       <c r="F15">
-        <v>1.057293788913336</v>
+        <v>1.02109348877636</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03802303798691</v>
+        <v>1.044044510252628</v>
       </c>
       <c r="J15">
-        <v>1.042969859654469</v>
+        <v>1.020511370695746</v>
       </c>
       <c r="K15">
-        <v>1.048844535371618</v>
+        <v>1.031028354259061</v>
       </c>
       <c r="L15">
-        <v>1.053614884352154</v>
+        <v>1.026638581832059</v>
       </c>
       <c r="M15">
-        <v>1.060768292028217</v>
+        <v>1.035558501106623</v>
       </c>
       <c r="N15">
-        <v>1.018202936087248</v>
+        <v>1.010457341747241</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037018759668814</v>
+        <v>0.9938862537379654</v>
       </c>
       <c r="D16">
-        <v>1.045774694002899</v>
+        <v>1.018706872916663</v>
       </c>
       <c r="E16">
-        <v>1.050656091211454</v>
+        <v>1.014610750360671</v>
       </c>
       <c r="F16">
-        <v>1.057828287147121</v>
+        <v>1.02368074784727</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038125888615176</v>
+        <v>1.044781840860477</v>
       </c>
       <c r="J16">
-        <v>1.043328416473731</v>
+        <v>1.022266985805187</v>
       </c>
       <c r="K16">
-        <v>1.049177728666618</v>
+        <v>1.032710677568804</v>
       </c>
       <c r="L16">
-        <v>1.05404217232542</v>
+        <v>1.028685202599158</v>
       </c>
       <c r="M16">
-        <v>1.061189770688369</v>
+        <v>1.037599746945723</v>
       </c>
       <c r="N16">
-        <v>1.018323904554152</v>
+        <v>1.011055659232954</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.037381016617938</v>
+        <v>0.99573163633985</v>
       </c>
       <c r="D17">
-        <v>1.046055491256035</v>
+        <v>1.020087809483171</v>
       </c>
       <c r="E17">
-        <v>1.050995918669042</v>
+        <v>1.016224694257513</v>
       </c>
       <c r="F17">
-        <v>1.058163847533144</v>
+        <v>1.025286328602447</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038190035294794</v>
+        <v>1.045235897488968</v>
       </c>
       <c r="J17">
-        <v>1.043553357974292</v>
+        <v>1.023354835446647</v>
       </c>
       <c r="K17">
-        <v>1.049386658513979</v>
+        <v>1.033752561251814</v>
       </c>
       <c r="L17">
-        <v>1.05431031763175</v>
+        <v>1.029954103014345</v>
       </c>
       <c r="M17">
-        <v>1.061454223472641</v>
+        <v>1.038865061788359</v>
       </c>
       <c r="N17">
-        <v>1.01839977251835</v>
+        <v>1.01142634069367</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037592399675327</v>
+        <v>0.996800200092289</v>
       </c>
       <c r="D18">
-        <v>1.04621932903453</v>
+        <v>1.020887884028</v>
       </c>
       <c r="E18">
-        <v>1.051194253068178</v>
+        <v>1.017160028350872</v>
       </c>
       <c r="F18">
-        <v>1.058359675950865</v>
+        <v>1.026216737784337</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038227317865829</v>
+        <v>1.045497743923433</v>
       </c>
       <c r="J18">
-        <v>1.043684572376211</v>
+        <v>1.023984639432562</v>
       </c>
       <c r="K18">
-        <v>1.049508496879069</v>
+        <v>1.034355549502991</v>
       </c>
       <c r="L18">
-        <v>1.054466764652674</v>
+        <v>1.030688988539697</v>
       </c>
       <c r="M18">
-        <v>1.061608499211894</v>
+        <v>1.039597776916506</v>
       </c>
       <c r="N18">
-        <v>1.018444020422473</v>
+        <v>1.011640921413373</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037664490166179</v>
+        <v>0.9971632459888012</v>
       </c>
       <c r="D19">
-        <v>1.046275202506863</v>
+        <v>1.021159783967419</v>
       </c>
       <c r="E19">
-        <v>1.051261900072791</v>
+        <v>1.01747794063732</v>
       </c>
       <c r="F19">
-        <v>1.058426465583031</v>
+        <v>1.02653296259846</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038240007664646</v>
+        <v>1.04558652291284</v>
       </c>
       <c r="J19">
-        <v>1.043729314729568</v>
+        <v>1.024198595753973</v>
       </c>
       <c r="K19">
-        <v>1.04955003601672</v>
+        <v>1.034560360889633</v>
       </c>
       <c r="L19">
-        <v>1.054520116194897</v>
+        <v>1.030938687691278</v>
       </c>
       <c r="M19">
-        <v>1.061661107433685</v>
+        <v>1.039846722449379</v>
       </c>
       <c r="N19">
-        <v>1.018459107021366</v>
+        <v>1.011713814491155</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03734214110511</v>
+        <v>0.9955344573482336</v>
       </c>
       <c r="D20">
-        <v>1.046025358823645</v>
+        <v>1.01994020961549</v>
       </c>
       <c r="E20">
-        <v>1.050959446099945</v>
+        <v>1.016052162715272</v>
       </c>
       <c r="F20">
-        <v>1.058127834545668</v>
+        <v>1.025114699127663</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038183166726215</v>
+        <v>1.045187492589889</v>
       </c>
       <c r="J20">
-        <v>1.043529222855176</v>
+        <v>1.023238610133729</v>
       </c>
       <c r="K20">
-        <v>1.049364245090206</v>
+        <v>1.033641267959203</v>
       </c>
       <c r="L20">
-        <v>1.054281543782715</v>
+        <v>1.029818507011612</v>
       </c>
       <c r="M20">
-        <v>1.061425847605532</v>
+        <v>1.038729858613386</v>
       </c>
       <c r="N20">
-        <v>1.018391633075979</v>
+        <v>1.011386739632627</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.036295151479774</v>
+        <v>0.9901457769997198</v>
       </c>
       <c r="D21">
-        <v>1.045213725199752</v>
+        <v>1.015910880703878</v>
       </c>
       <c r="E21">
-        <v>1.049977538845517</v>
+        <v>1.011344616770519</v>
       </c>
       <c r="F21">
-        <v>1.057158155538493</v>
+        <v>1.020431053016577</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037996808297637</v>
+        <v>1.043854638442329</v>
       </c>
       <c r="J21">
-        <v>1.042878822899087</v>
+        <v>1.020061356035837</v>
       </c>
       <c r="K21">
-        <v>1.048759907632902</v>
+        <v>1.030596958818679</v>
       </c>
       <c r="L21">
-        <v>1.053506423169636</v>
+        <v>1.02611420286619</v>
       </c>
       <c r="M21">
-        <v>1.060661291026198</v>
+        <v>1.035035422535779</v>
       </c>
       <c r="N21">
-        <v>1.018172215733594</v>
+        <v>1.010303958204274</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.035637639078665</v>
+        <v>0.9866827339086284</v>
       </c>
       <c r="D22">
-        <v>1.044703911975191</v>
+        <v>1.013326076741162</v>
       </c>
       <c r="E22">
-        <v>1.049361256153442</v>
+        <v>1.008326935632593</v>
       </c>
       <c r="F22">
-        <v>1.056549407902583</v>
+        <v>1.01742803951988</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037878442337616</v>
+        <v>1.042988554159125</v>
       </c>
       <c r="J22">
-        <v>1.042469986942038</v>
+        <v>1.018018771175093</v>
       </c>
       <c r="K22">
-        <v>1.048379702887793</v>
+        <v>1.028638084589418</v>
       </c>
       <c r="L22">
-        <v>1.053019465298596</v>
+        <v>1.023735219663688</v>
       </c>
       <c r="M22">
-        <v>1.060180817982455</v>
+        <v>1.032661973208146</v>
       </c>
       <c r="N22">
-        <v>1.018034220973936</v>
+        <v>1.009607681832811</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035986125302242</v>
+        <v>0.988525893650837</v>
       </c>
       <c r="D23">
-        <v>1.04497412633582</v>
+        <v>1.014701340397047</v>
       </c>
       <c r="E23">
-        <v>1.049687856225481</v>
+        <v>1.009932317902893</v>
       </c>
       <c r="F23">
-        <v>1.056872028010199</v>
+        <v>1.019025677041989</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037941303447843</v>
+        <v>1.043450395792418</v>
       </c>
       <c r="J23">
-        <v>1.042686709113196</v>
+        <v>1.019105962424489</v>
       </c>
       <c r="K23">
-        <v>1.048581278372681</v>
+        <v>1.029680879304327</v>
       </c>
       <c r="L23">
-        <v>1.053277573347852</v>
+        <v>1.025001233816733</v>
       </c>
       <c r="M23">
-        <v>1.060435503182425</v>
+        <v>1.033925115218299</v>
       </c>
       <c r="N23">
-        <v>1.018107378096589</v>
+        <v>1.009978299074965</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03735970701436</v>
+        <v>0.9956235781556777</v>
       </c>
       <c r="D24">
-        <v>1.046038974207717</v>
+        <v>1.020006920309194</v>
       </c>
       <c r="E24">
-        <v>1.050975926117113</v>
+        <v>1.016130140960979</v>
       </c>
       <c r="F24">
-        <v>1.058144106950438</v>
+        <v>1.025192269913313</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038186270748028</v>
+        <v>1.045209373931108</v>
       </c>
       <c r="J24">
-        <v>1.043540128446367</v>
+        <v>1.023291141912138</v>
       </c>
       <c r="K24">
-        <v>1.049374372834823</v>
+        <v>1.033691571185779</v>
       </c>
       <c r="L24">
-        <v>1.054294545315676</v>
+        <v>1.029879793181835</v>
       </c>
       <c r="M24">
-        <v>1.06143866936166</v>
+        <v>1.038790967526208</v>
       </c>
       <c r="N24">
-        <v>1.018395310953878</v>
+        <v>1.011404638681171</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038956990648364</v>
+        <v>1.00355538535436</v>
       </c>
       <c r="D25">
-        <v>1.047276763380566</v>
+        <v>1.025953024969823</v>
       </c>
       <c r="E25">
-        <v>1.052475313646833</v>
+        <v>1.023086420294334</v>
       </c>
       <c r="F25">
-        <v>1.059624267974337</v>
+        <v>1.0321104450793</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038465318189544</v>
+        <v>1.047133463259672</v>
       </c>
       <c r="J25">
-        <v>1.044530855625276</v>
+        <v>1.027963686179633</v>
       </c>
       <c r="K25">
-        <v>1.050293655956623</v>
+        <v>1.038161382880392</v>
       </c>
       <c r="L25">
-        <v>1.05547634309789</v>
+        <v>1.035336616698804</v>
       </c>
       <c r="M25">
-        <v>1.06260375973778</v>
+        <v>1.044229929433236</v>
       </c>
       <c r="N25">
-        <v>1.018729259121826</v>
+        <v>1.012996170417555</v>
       </c>
     </row>
   </sheetData>
